--- a/biology/Zoologie/Boophis_bottae/Boophis_bottae.xlsx
+++ b/biology/Zoologie/Boophis_bottae/Boophis_bottae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boophis bottae est une espèce d'amphibiens de la famille des Mantellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boophis bottae est une espèce d'amphibiens de la famille des Mantellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre entre 800 et 1 000 m d'altitude dans l'est de l'île, entre Andasibe et Ranomafana[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre entre 800 et 1 000 m d'altitude dans l'est de l'île, entre Andasibe et Ranomafana,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Boophis bottae mesure environ 24 mm. Son dos est vert clair tirant sur le jaunâtre sur les flancs ; une ligne longitudinale jaune parcourt le dos jusqu'aux membres antérieurs, parfois l'ensemble du dos. Des motifs de couleur brun roux, noir, rouge brillant et jaune, complète sa livrée. Son ventre est transparent.
 </t>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, bottae, lui a été donné en référence à Ursula Bott, du Zoologisches Forschungsinstitut und Museum Alexander König (Institut et Musée zoologiques Alexander König), en reconnaissance de son aide[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, bottae, lui a été donné en référence à Ursula Bott, du Zoologisches Forschungsinstitut und Museum Alexander König (Institut et Musée zoologiques Alexander König), en reconnaissance de son aide.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Vences &amp; Glaw, 2002 : Two new treefrogs of the Boophis rappiodes group from eastern Madagascar (Amphibia Mantellidae). Tropical Zoology, vol. 15, p. 141-163 (texte intégral).</t>
         </is>
